--- a/AAII_Financials/Quarterly/CFOO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CFOO_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>

--- a/AAII_Financials/Quarterly/CFOO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CFOO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="92">
   <si>
     <t>CFOO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,70 +665,81 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>200</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
@@ -742,22 +753,31 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
+      <c r="D9" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E9" s="3">
+        <v>200</v>
+      </c>
+      <c r="F9" s="3">
+        <v>300</v>
+      </c>
+      <c r="G9" s="3">
+        <v>100</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>4</v>
@@ -771,22 +791,31 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
+      <c r="D10" s="3">
+        <v>400</v>
+      </c>
+      <c r="E10" s="3">
+        <v>400</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>4</v>
@@ -800,8 +829,17 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,8 +851,11 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -842,8 +883,17 @@
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,8 +921,17 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -900,8 +959,17 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -929,8 +997,17 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,22 +1016,25 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>0</v>
+      <c r="D17" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E17" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="F17" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G17" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H17" s="3">
         <v>0</v>
@@ -968,8 +1048,17 @@
       <c r="K17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -977,13 +1066,13 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
@@ -997,8 +1086,17 @@
       <c r="K18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,8 +1108,11 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1039,16 +1140,25 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
+      <c r="E21" s="3">
+        <v>-100</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>4</v>
@@ -1068,22 +1178,31 @@
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="E22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1097,22 +1216,31 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>0</v>
+      <c r="D23" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
@@ -1126,8 +1254,17 @@
       <c r="K23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1155,8 +1292,17 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,22 +1330,31 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>0</v>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="H26" s="3">
         <v>0</v>
@@ -1213,22 +1368,31 @@
       <c r="K26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>0</v>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="H27" s="3">
         <v>0</v>
@@ -1242,8 +1406,17 @@
       <c r="K27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1444,17 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1282,14 +1464,14 @@
       <c r="E29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -1300,8 +1482,17 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1520,17 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,8 +1558,17 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1387,22 +1596,31 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>0</v>
+      <c r="D33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="H33" s="3">
         <v>0</v>
@@ -1416,8 +1634,17 @@
       <c r="K33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,22 +1672,31 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>0</v>
+      <c r="D35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="H35" s="3">
         <v>0</v>
@@ -1474,42 +1710,60 @@
       <c r="K35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1775,11 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,22 +1791,25 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>4</v>
+        <v>1000</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
@@ -1557,14 +1817,23 @@
       <c r="I41" s="3">
         <v>0</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
+      <c r="J41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1592,8 +1861,17 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1621,57 +1899,75 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E44" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>4</v>
+      <c r="D45" s="3">
+        <v>400</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F45" s="3">
+        <v>100</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
@@ -1679,19 +1975,28 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="E46" s="3">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="F46" s="3">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="G46" s="3">
         <v>0</v>
@@ -1708,8 +2013,17 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1737,37 +2051,55 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1780,23 +2112,32 @@
       <c r="F49" s="3">
         <v>0</v>
       </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+      <c r="G49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +2165,17 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,8 +2203,17 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1882,8 +2241,17 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,19 +2279,28 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="E54" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F54" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="G54" s="3">
         <v>0</v>
@@ -1940,8 +2317,17 @@
       <c r="K54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2339,11 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,8 +2355,11 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1977,43 +2369,52 @@
       <c r="E57" s="3">
         <v>0</v>
       </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3">
-        <v>0</v>
+      <c r="F57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
@@ -2021,69 +2422,96 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>700</v>
+      </c>
+      <c r="F59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G59" s="3">
         <v>200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="H59" s="3">
         <v>100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="I59" s="3">
         <v>100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="J59" s="3">
         <v>100</v>
       </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
       <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>700</v>
+      </c>
+      <c r="F60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G60" s="3">
         <v>200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="H60" s="3">
         <v>100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="I60" s="3">
         <v>100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="J60" s="3">
         <v>100</v>
       </c>
-      <c r="H60" s="3">
-        <v>0</v>
-      </c>
-      <c r="I60" s="3">
-        <v>0</v>
-      </c>
-      <c r="J60" s="3">
-        <v>0</v>
-      </c>
       <c r="K60" s="3">
+        <v>0</v>
+      </c>
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2111,37 +2539,55 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2615,17 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2653,17 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,37 +2691,55 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>700</v>
+      </c>
+      <c r="F66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G66" s="3">
         <v>200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="H66" s="3">
         <v>100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="I66" s="3">
         <v>100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="J66" s="3">
         <v>100</v>
       </c>
-      <c r="H66" s="3">
-        <v>0</v>
-      </c>
-      <c r="I66" s="3">
-        <v>0</v>
-      </c>
-      <c r="J66" s="3">
-        <v>0</v>
-      </c>
       <c r="K66" s="3">
+        <v>0</v>
+      </c>
+      <c r="L66" s="3">
+        <v>0</v>
+      </c>
+      <c r="M66" s="3">
+        <v>0</v>
+      </c>
+      <c r="N66" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2751,11 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2783,17 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2821,17 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2859,17 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,25 +2897,34 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-300</v>
       </c>
-      <c r="F72" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-200</v>
-      </c>
       <c r="H72" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="I72" s="3">
         <v>-200</v>
@@ -2412,10 +2933,19 @@
         <v>-200</v>
       </c>
       <c r="K72" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L72" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M72" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N72" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2973,17 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +3011,17 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,37 +3049,55 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>800</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G76" s="3">
         <v>-200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="H76" s="3">
         <v>-100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="I76" s="3">
         <v>-100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="J76" s="3">
         <v>-100</v>
       </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
-      <c r="J76" s="3">
-        <v>0</v>
-      </c>
       <c r="K76" s="3">
+        <v>0</v>
+      </c>
+      <c r="L76" s="3">
+        <v>0</v>
+      </c>
+      <c r="M76" s="3">
+        <v>0</v>
+      </c>
+      <c r="N76" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,56 +3125,74 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>0</v>
+      <c r="D81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="H81" s="3">
         <v>0</v>
@@ -2622,8 +3206,17 @@
       <c r="K81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,8 +3228,11 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2646,26 +3242,35 @@
       <c r="E83" s="3">
         <v>0</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +3298,17 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +3336,17 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +3374,17 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +3412,17 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,19 +3450,28 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>0</v>
+      <c r="D89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G89" s="3">
         <v>0</v>
@@ -2838,8 +3488,17 @@
       <c r="K89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,37 +3510,49 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3580,17 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,8 +3618,17 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2949,26 +3638,35 @@
       <c r="E94" s="3">
         <v>0</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3678,11 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3710,17 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3748,17 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3786,17 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,37 +3824,55 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>4</v>
+      <c r="I100" s="3">
+        <v>0</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3136,37 +3882,46 @@
       <c r="E101" s="3">
         <v>0</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="F101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G102" s="3">
         <v>0</v>
@@ -3181,6 +3936,15 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CFOO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CFOO_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>300</v>
+      </c>
+      <c r="E8" s="3">
         <v>200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>100</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
       <c r="I8" s="3">
         <v>0</v>
       </c>
@@ -762,28 +766,31 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E9" s="3">
         <v>200</v>
       </c>
       <c r="F9" s="3">
+        <v>200</v>
+      </c>
+      <c r="G9" s="3">
         <v>300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>100</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
+      <c r="I9" s="3">
+        <v>0</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>4</v>
@@ -800,8 +807,11 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -809,19 +819,19 @@
         <v>400</v>
       </c>
       <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
         <v>400</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
       <c r="G10" s="3">
         <v>0</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>4</v>
@@ -838,8 +848,11 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,8 +867,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -892,8 +906,11 @@
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,8 +947,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -968,8 +988,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,8 +1029,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,8 +1045,9 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1028,19 +1055,19 @@
         <v>4</v>
       </c>
       <c r="E17" s="3">
+        <v>400</v>
+      </c>
+      <c r="F17" s="3">
         <v>700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>300</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
       <c r="I17" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J17" s="3">
         <v>0</v>
@@ -1057,8 +1084,11 @@
       <c r="N17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1066,19 +1096,19 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-200</v>
       </c>
       <c r="G18" s="3">
         <v>-200</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="I18" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="J18" s="3">
         <v>0</v>
@@ -1095,8 +1125,11 @@
       <c r="N18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,8 +1144,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1149,8 +1183,11 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1158,19 +1195,19 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
+      <c r="I21" s="3">
+        <v>-100</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
@@ -1187,8 +1224,11 @@
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1204,8 +1244,8 @@
       <c r="G22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1225,8 +1265,11 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1234,19 +1277,19 @@
         <v>4</v>
       </c>
       <c r="E23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F23" s="3">
         <v>-100</v>
       </c>
       <c r="G23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J23" s="3">
         <v>0</v>
@@ -1263,8 +1306,11 @@
       <c r="N23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1301,8 +1347,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,8 +1388,11 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1348,19 +1400,19 @@
         <v>4</v>
       </c>
       <c r="E26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F26" s="3">
         <v>-100</v>
       </c>
       <c r="G26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J26" s="3">
         <v>0</v>
@@ -1377,8 +1429,11 @@
       <c r="N26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1386,19 +1441,19 @@
         <v>4</v>
       </c>
       <c r="E27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F27" s="3">
         <v>-100</v>
       </c>
       <c r="G27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J27" s="3">
         <v>0</v>
@@ -1415,8 +1470,11 @@
       <c r="N27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1511,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1473,8 +1534,8 @@
       <c r="H29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -1491,8 +1552,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1593,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,8 +1634,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1605,8 +1675,11 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1614,19 +1687,19 @@
         <v>4</v>
       </c>
       <c r="E33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F33" s="3">
         <v>-100</v>
       </c>
       <c r="G33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J33" s="3">
         <v>0</v>
@@ -1643,8 +1716,11 @@
       <c r="N33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,8 +1757,11 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1690,19 +1769,19 @@
         <v>4</v>
       </c>
       <c r="E35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F35" s="3">
         <v>-100</v>
       </c>
       <c r="G35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J35" s="3">
         <v>0</v>
@@ -1719,51 +1798,57 @@
       <c r="N35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1863,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,22 +1880,23 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>800</v>
+      </c>
+      <c r="E41" s="3">
         <v>700</v>
-      </c>
-      <c r="E41" s="3">
-        <v>1000</v>
       </c>
       <c r="F41" s="3">
         <v>1000</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
@@ -1817,11 +1904,11 @@
       <c r="I41" s="3">
         <v>0</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K41" s="3">
-        <v>0</v>
+      <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
@@ -1832,8 +1919,11 @@
       <c r="N41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,31 +1960,34 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -1908,23 +2001,26 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E44" s="3">
         <v>200</v>
       </c>
       <c r="F44" s="3">
+        <v>200</v>
+      </c>
+      <c r="G44" s="3">
         <v>300</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H44" s="3" t="s">
         <v>4</v>
       </c>
@@ -1934,8 +2030,8 @@
       <c r="J44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -1946,31 +2042,34 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>600</v>
+      </c>
+      <c r="E45" s="3">
         <v>400</v>
-      </c>
-      <c r="E45" s="3">
-        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
+      <c r="G45" s="3">
+        <v>100</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -1984,23 +2083,26 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E46" s="3">
         <v>1500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1400</v>
       </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
       <c r="H46" s="3">
         <v>0</v>
       </c>
@@ -2022,8 +2124,11 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2060,8 +2165,11 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2074,8 +2182,8 @@
       <c r="F48" s="3">
         <v>200</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
+      <c r="G48" s="3">
+        <v>200</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>4</v>
@@ -2086,8 +2194,8 @@
       <c r="J48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
@@ -2098,8 +2206,11 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2112,8 +2223,8 @@
       <c r="F49" s="3">
         <v>0</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>4</v>
+      <c r="G49" s="3">
+        <v>0</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>4</v>
@@ -2124,8 +2235,8 @@
       <c r="J49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -2136,8 +2247,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2288,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,8 +2329,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2250,8 +2370,11 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,23 +2411,26 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E54" s="3">
         <v>1700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1600</v>
       </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
       <c r="H54" s="3">
         <v>0</v>
       </c>
@@ -2326,8 +2452,11 @@
       <c r="N54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2471,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,8 +2488,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2369,8 +2500,8 @@
       <c r="E57" s="3">
         <v>0</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>4</v>
+      <c r="F57" s="3">
+        <v>0</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>4</v>
@@ -2384,8 +2515,8 @@
       <c r="J57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
+      <c r="K57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L57" s="3">
         <v>0</v>
@@ -2396,8 +2527,11 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2422,20 +2556,23 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
       <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2443,16 +2580,16 @@
         <v>700</v>
       </c>
       <c r="E59" s="3">
+        <v>800</v>
+      </c>
+      <c r="F59" s="3">
         <v>700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>200</v>
-      </c>
-      <c r="H59" s="3">
-        <v>100</v>
       </c>
       <c r="I59" s="3">
         <v>100</v>
@@ -2461,7 +2598,7 @@
         <v>100</v>
       </c>
       <c r="K59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
@@ -2470,27 +2607,30 @@
         <v>0</v>
       </c>
       <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>900</v>
+      </c>
+      <c r="E60" s="3">
         <v>800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>200</v>
-      </c>
-      <c r="H60" s="3">
-        <v>100</v>
       </c>
       <c r="I60" s="3">
         <v>100</v>
@@ -2499,7 +2639,7 @@
         <v>100</v>
       </c>
       <c r="K60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L60" s="3">
         <v>0</v>
@@ -2508,10 +2648,13 @@
         <v>0</v>
       </c>
       <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2548,16 +2691,19 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
         <v>300</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
+      <c r="E62" s="3">
+        <v>300</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>4</v>
@@ -2574,8 +2720,8 @@
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -2586,8 +2732,11 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2773,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2814,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,25 +2855,28 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E66" s="3">
         <v>1000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>200</v>
-      </c>
-      <c r="H66" s="3">
-        <v>100</v>
       </c>
       <c r="I66" s="3">
         <v>100</v>
@@ -2727,7 +2885,7 @@
         <v>100</v>
       </c>
       <c r="K66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L66" s="3">
         <v>0</v>
@@ -2736,10 +2894,13 @@
         <v>0</v>
       </c>
       <c r="N66" s="3">
+        <v>0</v>
+      </c>
+      <c r="O66" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2915,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2954,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2995,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3036,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,19 +3077,22 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-500</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-300</v>
       </c>
       <c r="G72" s="3">
         <v>-300</v>
@@ -2927,7 +3101,7 @@
         <v>-300</v>
       </c>
       <c r="I72" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="J72" s="3">
         <v>-200</v>
@@ -2942,10 +3116,13 @@
         <v>-200</v>
       </c>
       <c r="N72" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O72" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3159,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3200,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,25 +3241,28 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>700</v>
+      </c>
+      <c r="E76" s="3">
         <v>600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-200</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-100</v>
       </c>
       <c r="I76" s="3">
         <v>-100</v>
@@ -3085,7 +3271,7 @@
         <v>-100</v>
       </c>
       <c r="K76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L76" s="3">
         <v>0</v>
@@ -3094,10 +3280,13 @@
         <v>0</v>
       </c>
       <c r="N76" s="3">
+        <v>0</v>
+      </c>
+      <c r="O76" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,51 +3323,57 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3186,19 +3381,19 @@
         <v>4</v>
       </c>
       <c r="E81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F81" s="3">
         <v>-100</v>
       </c>
       <c r="G81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J81" s="3">
         <v>0</v>
@@ -3215,8 +3410,11 @@
       <c r="N81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,8 +3429,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3242,8 +3441,8 @@
       <c r="E83" s="3">
         <v>0</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
+      <c r="F83" s="3">
+        <v>0</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>4</v>
@@ -3251,14 +3450,14 @@
       <c r="H83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
+      <c r="I83" s="3">
+        <v>0</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -3269,8 +3468,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3509,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3550,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3591,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3632,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,28 +3673,31 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>4</v>
+      <c r="D89" s="3">
+        <v>600</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>400</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
         <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J89" s="3">
         <v>0</v>
@@ -3497,8 +3714,11 @@
       <c r="N89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,19 +3733,20 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>4</v>
@@ -3533,14 +3754,14 @@
       <c r="H91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -3551,8 +3772,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3813,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,8 +3854,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3638,8 +3868,8 @@
       <c r="E94" s="3">
         <v>0</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>4</v>
@@ -3647,14 +3877,14 @@
       <c r="H94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -3665,8 +3895,11 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3914,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +3953,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3994,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4035,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,8 +4076,11 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3844,8 +4090,8 @@
       <c r="E100" s="3">
         <v>0</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
+      <c r="F100" s="3">
+        <v>0</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>4</v>
@@ -3859,20 +4105,23 @@
       <c r="J100" s="3">
         <v>0</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>4</v>
+      <c r="K100" s="3">
+        <v>0</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
+      <c r="M100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3882,8 +4131,8 @@
       <c r="E101" s="3">
         <v>0</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>4</v>
+      <c r="F101" s="3">
+        <v>0</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>4</v>
@@ -3891,14 +4140,14 @@
       <c r="H101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>4</v>
+      <c r="I101" s="3">
+        <v>0</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
@@ -3909,28 +4158,31 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>400</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J102" s="3">
         <v>0</v>
@@ -3945,6 +4197,9 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CFOO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CFOO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
   <si>
     <t>CFOO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,92 +665,96 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>100</v>
+      </c>
+      <c r="E8" s="3">
         <v>300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>100</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
       <c r="J8" s="3">
         <v>0</v>
       </c>
@@ -769,31 +773,34 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F9" s="3">
         <v>200</v>
       </c>
       <c r="G9" s="3">
+        <v>200</v>
+      </c>
+      <c r="H9" s="3">
         <v>300</v>
       </c>
-      <c r="H9" s="3">
-        <v>100</v>
-      </c>
       <c r="I9" s="3">
         <v>0</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
+      <c r="J9" s="3">
+        <v>0</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>4</v>
@@ -810,31 +817,34 @@
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>200</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
         <v>400</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
-        <v>400</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
       <c r="H10" s="3">
         <v>0</v>
       </c>
       <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>4</v>
@@ -851,8 +861,11 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -868,8 +881,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -909,8 +923,11 @@
       <c r="O12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,8 +967,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -991,8 +1011,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1032,8 +1055,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,31 +1072,32 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
+      <c r="D17" s="3">
+        <v>200</v>
       </c>
       <c r="E17" s="3">
+        <v>200</v>
+      </c>
+      <c r="F17" s="3">
         <v>400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>500</v>
-      </c>
-      <c r="H17" s="3">
-        <v>300</v>
       </c>
       <c r="I17" s="3">
         <v>200</v>
       </c>
       <c r="J17" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K17" s="3">
         <v>0</v>
@@ -1087,32 +1114,35 @@
       <c r="O17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>-100</v>
       </c>
       <c r="E18" s="3">
+        <v>100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-100</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-200</v>
       </c>
       <c r="H18" s="3">
         <v>-200</v>
       </c>
       <c r="I18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
         <v>0</v>
       </c>
@@ -1128,8 +1158,11 @@
       <c r="O18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,13 +1178,14 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1186,32 +1220,35 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>-100</v>
       </c>
       <c r="E21" s="3">
+        <v>100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3">
         <v>-100</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1227,8 +1264,11 @@
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1247,8 +1287,8 @@
       <c r="H22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1268,31 +1308,34 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>-200</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-100</v>
       </c>
       <c r="G23" s="3">
         <v>-100</v>
       </c>
       <c r="H23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="I23" s="3">
         <v>-100</v>
       </c>
       <c r="J23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K23" s="3">
         <v>0</v>
@@ -1309,8 +1352,11 @@
       <c r="O23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1350,8 +1396,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,31 +1440,34 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-200</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-100</v>
       </c>
       <c r="G26" s="3">
         <v>-100</v>
       </c>
       <c r="H26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="I26" s="3">
         <v>-100</v>
       </c>
       <c r="J26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K26" s="3">
         <v>0</v>
@@ -1432,31 +1484,34 @@
       <c r="O26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-200</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-100</v>
       </c>
       <c r="G27" s="3">
         <v>-100</v>
       </c>
       <c r="H27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="I27" s="3">
         <v>-100</v>
       </c>
       <c r="J27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K27" s="3">
         <v>0</v>
@@ -1473,8 +1528,11 @@
       <c r="O27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1572,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1537,8 +1598,8 @@
       <c r="I29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1555,8 +1616,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1660,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,13 +1704,16 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1678,31 +1748,34 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-200</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-100</v>
       </c>
       <c r="G33" s="3">
         <v>-100</v>
       </c>
       <c r="H33" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="I33" s="3">
         <v>-100</v>
       </c>
       <c r="J33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K33" s="3">
         <v>0</v>
@@ -1719,8 +1792,11 @@
       <c r="O33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,31 +1836,34 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-200</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-100</v>
       </c>
       <c r="G35" s="3">
         <v>-100</v>
       </c>
       <c r="H35" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="I35" s="3">
         <v>-100</v>
       </c>
       <c r="J35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K35" s="3">
         <v>0</v>
@@ -1801,54 +1880,60 @@
       <c r="O35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +1949,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,25 +1967,26 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>700</v>
+      </c>
+      <c r="E41" s="3">
         <v>800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>700</v>
-      </c>
-      <c r="F41" s="3">
-        <v>1000</v>
       </c>
       <c r="G41" s="3">
         <v>1000</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I41" s="3">
         <v>0</v>
@@ -1907,11 +1994,11 @@
       <c r="J41" s="3">
         <v>0</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L41" s="3">
-        <v>0</v>
+      <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M41" s="3">
         <v>0</v>
@@ -1922,8 +2009,11 @@
       <c r="O41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1963,20 +2053,23 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>300</v>
+      </c>
+      <c r="E43" s="3">
+        <v>300</v>
+      </c>
+      <c r="F43" s="3">
         <v>200</v>
       </c>
-      <c r="E43" s="3">
-        <v>200</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>4</v>
       </c>
@@ -1989,8 +2082,8 @@
       <c r="J43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -2004,26 +2097,29 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>200</v>
+      </c>
+      <c r="E44" s="3">
         <v>100</v>
-      </c>
-      <c r="E44" s="3">
-        <v>200</v>
       </c>
       <c r="F44" s="3">
         <v>200</v>
       </c>
       <c r="G44" s="3">
+        <v>200</v>
+      </c>
+      <c r="H44" s="3">
         <v>300</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2033,8 +2129,8 @@
       <c r="K44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="L44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
@@ -2045,34 +2141,37 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E45" s="3">
+        <v>500</v>
+      </c>
+      <c r="F45" s="3">
         <v>400</v>
-      </c>
-      <c r="F45" s="3">
-        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0</v>
+      <c r="H45" s="3">
+        <v>100</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -2086,26 +2185,29 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E46" s="3">
         <v>1700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1400</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
       <c r="I46" s="3">
         <v>0</v>
       </c>
@@ -2127,8 +2229,11 @@
       <c r="O46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2168,8 +2273,11 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2185,8 +2293,8 @@
       <c r="G48" s="3">
         <v>200</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
+      <c r="H48" s="3">
+        <v>200</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>4</v>
@@ -2197,8 +2305,8 @@
       <c r="K48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="L48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
@@ -2209,8 +2317,11 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2226,8 +2337,8 @@
       <c r="G49" s="3">
         <v>0</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
+      <c r="H49" s="3">
+        <v>0</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>4</v>
@@ -2238,8 +2349,8 @@
       <c r="K49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
@@ -2250,8 +2361,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2405,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,8 +2449,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2373,8 +2493,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,26 +2537,29 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E54" s="3">
         <v>1900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1600</v>
       </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
       <c r="I54" s="3">
         <v>0</v>
       </c>
@@ -2455,8 +2581,11 @@
       <c r="O54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2601,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,8 +2619,9 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2503,8 +2634,8 @@
       <c r="F57" s="3">
         <v>0</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>4</v>
+      <c r="G57" s="3">
+        <v>0</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>4</v>
@@ -2518,8 +2649,8 @@
       <c r="K57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L57" s="3">
-        <v>0</v>
+      <c r="L57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M57" s="3">
         <v>0</v>
@@ -2530,8 +2661,11 @@
       <c r="O57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2559,40 +2693,43 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
       <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>900</v>
+      </c>
+      <c r="F59" s="3">
+        <v>800</v>
+      </c>
+      <c r="G59" s="3">
         <v>700</v>
       </c>
-      <c r="E59" s="3">
-        <v>800</v>
-      </c>
-      <c r="F59" s="3">
-        <v>700</v>
-      </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>200</v>
-      </c>
-      <c r="I59" s="3">
-        <v>100</v>
       </c>
       <c r="J59" s="3">
         <v>100</v>
@@ -2601,7 +2738,7 @@
         <v>100</v>
       </c>
       <c r="L59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
@@ -2610,30 +2747,33 @@
         <v>0</v>
       </c>
       <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>800</v>
+      </c>
+      <c r="E60" s="3">
         <v>900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>200</v>
-      </c>
-      <c r="I60" s="3">
-        <v>100</v>
       </c>
       <c r="J60" s="3">
         <v>100</v>
@@ -2642,7 +2782,7 @@
         <v>100</v>
       </c>
       <c r="L60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M60" s="3">
         <v>0</v>
@@ -2651,10 +2791,13 @@
         <v>0</v>
       </c>
       <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2694,8 +2837,11 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2705,8 +2851,8 @@
       <c r="E62" s="3">
         <v>300</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
+      <c r="F62" s="3">
+        <v>300</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>4</v>
@@ -2723,8 +2869,8 @@
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -2735,8 +2881,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +2925,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +2969,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,28 +3013,31 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E66" s="3">
         <v>1200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>200</v>
-      </c>
-      <c r="I66" s="3">
-        <v>100</v>
       </c>
       <c r="J66" s="3">
         <v>100</v>
@@ -2888,7 +3046,7 @@
         <v>100</v>
       </c>
       <c r="L66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M66" s="3">
         <v>0</v>
@@ -2897,10 +3055,13 @@
         <v>0</v>
       </c>
       <c r="O66" s="3">
+        <v>0</v>
+      </c>
+      <c r="P66" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3077,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3119,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3163,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3207,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,22 +3251,25 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-500</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-300</v>
       </c>
       <c r="H72" s="3">
         <v>-300</v>
@@ -3104,7 +3278,7 @@
         <v>-300</v>
       </c>
       <c r="J72" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="K72" s="3">
         <v>-200</v>
@@ -3119,10 +3293,13 @@
         <v>-200</v>
       </c>
       <c r="O72" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P72" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3339,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3383,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,28 +3427,31 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>600</v>
+      </c>
+      <c r="E76" s="3">
         <v>700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-200</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-100</v>
       </c>
       <c r="J76" s="3">
         <v>-100</v>
@@ -3274,7 +3460,7 @@
         <v>-100</v>
       </c>
       <c r="L76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M76" s="3">
         <v>0</v>
@@ -3283,10 +3469,13 @@
         <v>0</v>
       </c>
       <c r="O76" s="3">
+        <v>0</v>
+      </c>
+      <c r="P76" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,77 +3515,83 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-200</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-100</v>
       </c>
       <c r="G81" s="3">
         <v>-100</v>
       </c>
       <c r="H81" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="I81" s="3">
         <v>-100</v>
       </c>
       <c r="J81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K81" s="3">
         <v>0</v>
@@ -3413,8 +3608,11 @@
       <c r="O81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,8 +3628,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3444,23 +3643,23 @@
       <c r="F83" s="3">
         <v>0</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
+      <c r="G83" s="3">
+        <v>0</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
+      <c r="I83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -3471,8 +3670,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3714,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3758,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +3802,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +3846,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,32 +3890,35 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>600</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>400</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J89" s="3">
         <v>300</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
@@ -3717,8 +3934,11 @@
       <c r="O89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,8 +3954,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3745,26 +3966,26 @@
       <c r="E91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -3775,8 +3996,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4040,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,8 +4084,11 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3871,23 +4101,23 @@
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -3898,8 +4128,11 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4148,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4190,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4234,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4278,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,8 +4322,11 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4093,14 +4339,14 @@
       <c r="F100" s="3">
         <v>0</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>4</v>
+      <c r="G100" s="3">
+        <v>0</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
+      <c r="I100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>
@@ -4108,20 +4354,23 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>4</v>
+      <c r="L100" s="3">
+        <v>0</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
+      <c r="N100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4134,23 +4383,23 @@
       <c r="F101" s="3">
         <v>0</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>4</v>
+      <c r="G101" s="3">
+        <v>0</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>4</v>
+      <c r="I101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="L101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
@@ -4161,32 +4410,35 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>500</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
+        <v>100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-300</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>400</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
@@ -4200,6 +4452,9 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CFOO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CFOO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
   <si>
     <t>CFOO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,99 +665,102 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>400</v>
+      </c>
+      <c r="E8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>100</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
@@ -776,34 +779,37 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
         <v>100</v>
-      </c>
-      <c r="F9" s="3">
-        <v>200</v>
       </c>
       <c r="G9" s="3">
         <v>200</v>
       </c>
       <c r="H9" s="3">
+        <v>200</v>
+      </c>
+      <c r="I9" s="3">
         <v>300</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
       <c r="J9" s="3">
         <v>0</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
+      <c r="K9" s="3">
+        <v>0</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>4</v>
@@ -820,34 +826,37 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>300</v>
+      </c>
+      <c r="E10" s="3">
         <v>100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>200</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
       <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
         <v>400</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
       <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
         <v>100</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
+      <c r="K10" s="3">
+        <v>0</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>4</v>
@@ -864,8 +873,11 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -882,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -926,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -970,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1014,8 +1033,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1058,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1073,34 +1098,35 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="E17" s="3">
         <v>200</v>
       </c>
       <c r="F17" s="3">
+        <v>200</v>
+      </c>
+      <c r="G17" s="3">
         <v>400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>500</v>
-      </c>
-      <c r="I17" s="3">
-        <v>200</v>
       </c>
       <c r="J17" s="3">
         <v>200</v>
       </c>
       <c r="K17" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L17" s="3">
         <v>0</v>
@@ -1117,35 +1143,38 @@
       <c r="P17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
         <v>0</v>
       </c>
@@ -1161,8 +1190,11 @@
       <c r="P18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1179,8 +1211,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1223,35 +1256,38 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-100</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3">
         <v>-100</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1267,28 +1303,31 @@
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1311,22 +1350,25 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>-200</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-100</v>
       </c>
       <c r="H23" s="3">
         <v>-100</v>
@@ -1338,7 +1380,7 @@
         <v>-100</v>
       </c>
       <c r="K23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L23" s="3">
         <v>0</v>
@@ -1355,8 +1397,11 @@
       <c r="P23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1399,8 +1444,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1443,22 +1491,25 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>-200</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-100</v>
       </c>
       <c r="H26" s="3">
         <v>-100</v>
@@ -1470,7 +1521,7 @@
         <v>-100</v>
       </c>
       <c r="K26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L26" s="3">
         <v>0</v>
@@ -1487,22 +1538,25 @@
       <c r="P26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-200</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-100</v>
       </c>
       <c r="H27" s="3">
         <v>-100</v>
@@ -1514,7 +1568,7 @@
         <v>-100</v>
       </c>
       <c r="K27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L27" s="3">
         <v>0</v>
@@ -1531,8 +1585,11 @@
       <c r="P27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1575,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1601,8 +1661,8 @@
       <c r="J29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -1619,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1663,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1707,8 +1773,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1751,22 +1820,25 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-200</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-100</v>
       </c>
       <c r="H33" s="3">
         <v>-100</v>
@@ -1778,7 +1850,7 @@
         <v>-100</v>
       </c>
       <c r="K33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L33" s="3">
         <v>0</v>
@@ -1795,8 +1867,11 @@
       <c r="P33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1839,22 +1914,25 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-200</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-100</v>
       </c>
       <c r="H35" s="3">
         <v>-100</v>
@@ -1866,7 +1944,7 @@
         <v>-100</v>
       </c>
       <c r="K35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L35" s="3">
         <v>0</v>
@@ -1883,57 +1961,63 @@
       <c r="P35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1950,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1968,28 +2053,29 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>600</v>
+      </c>
+      <c r="E41" s="3">
         <v>700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>700</v>
-      </c>
-      <c r="G41" s="3">
-        <v>1000</v>
       </c>
       <c r="H41" s="3">
         <v>1000</v>
       </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
@@ -1997,11 +2083,11 @@
       <c r="K41" s="3">
         <v>0</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M41" s="3">
-        <v>0</v>
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
@@ -2012,8 +2098,11 @@
       <c r="P41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2056,23 +2145,26 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
         <v>300</v>
       </c>
       <c r="F43" s="3">
+        <v>300</v>
+      </c>
+      <c r="G43" s="3">
         <v>200</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2085,8 +2177,8 @@
       <c r="K43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="L43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -2100,29 +2192,32 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>300</v>
+      </c>
+      <c r="E44" s="3">
         <v>200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>100</v>
-      </c>
-      <c r="F44" s="3">
-        <v>200</v>
       </c>
       <c r="G44" s="3">
         <v>200</v>
       </c>
       <c r="H44" s="3">
+        <v>200</v>
+      </c>
+      <c r="I44" s="3">
         <v>300</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2132,8 +2227,8 @@
       <c r="L44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
+      <c r="M44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
@@ -2144,8 +2239,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2153,28 +2251,28 @@
         <v>400</v>
       </c>
       <c r="E45" s="3">
+        <v>400</v>
+      </c>
+      <c r="F45" s="3">
         <v>500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>400</v>
-      </c>
-      <c r="G45" s="3">
-        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="I45" s="3">
+        <v>100</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -2188,29 +2286,32 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E46" s="3">
         <v>1500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1400</v>
       </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
       <c r="J46" s="3">
         <v>0</v>
       </c>
@@ -2232,8 +2333,11 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2276,13 +2380,16 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E48" s="3">
         <v>200</v>
@@ -2296,8 +2403,8 @@
       <c r="H48" s="3">
         <v>200</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
+      <c r="I48" s="3">
+        <v>200</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>4</v>
@@ -2308,8 +2415,8 @@
       <c r="L48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
+      <c r="M48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
@@ -2320,8 +2427,11 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2340,8 +2450,8 @@
       <c r="H49" s="3">
         <v>0</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
+      <c r="I49" s="3">
+        <v>0</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>4</v>
@@ -2352,8 +2462,8 @@
       <c r="L49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -2364,8 +2474,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2408,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2452,8 +2568,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2496,8 +2615,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2540,29 +2662,32 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E54" s="3">
         <v>1700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1600</v>
       </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
       <c r="J54" s="3">
         <v>0</v>
       </c>
@@ -2584,8 +2709,11 @@
       <c r="P54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2602,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2620,8 +2749,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2637,8 +2767,8 @@
       <c r="G57" s="3">
         <v>0</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>4</v>
+      <c r="H57" s="3">
+        <v>0</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>4</v>
@@ -2652,8 +2782,8 @@
       <c r="L57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
+      <c r="M57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N57" s="3">
         <v>0</v>
@@ -2664,8 +2794,11 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2696,43 +2829,46 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
       </c>
       <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>900</v>
+      </c>
+      <c r="E59" s="3">
         <v>800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>200</v>
-      </c>
-      <c r="J59" s="3">
-        <v>100</v>
       </c>
       <c r="K59" s="3">
         <v>100</v>
@@ -2741,7 +2877,7 @@
         <v>100</v>
       </c>
       <c r="M59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
@@ -2750,33 +2886,36 @@
         <v>0</v>
       </c>
       <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>900</v>
+      </c>
+      <c r="E60" s="3">
         <v>800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>200</v>
-      </c>
-      <c r="J60" s="3">
-        <v>100</v>
       </c>
       <c r="K60" s="3">
         <v>100</v>
@@ -2785,7 +2924,7 @@
         <v>100</v>
       </c>
       <c r="M60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N60" s="3">
         <v>0</v>
@@ -2794,10 +2933,13 @@
         <v>0</v>
       </c>
       <c r="P60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2840,13 +2982,16 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E62" s="3">
         <v>300</v>
@@ -2854,8 +2999,8 @@
       <c r="F62" s="3">
         <v>300</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
+      <c r="G62" s="3">
+        <v>300</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>4</v>
@@ -2872,8 +3017,8 @@
       <c r="L62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -2884,8 +3029,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2928,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2972,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3016,31 +3170,34 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E66" s="3">
         <v>1100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>200</v>
-      </c>
-      <c r="J66" s="3">
-        <v>100</v>
       </c>
       <c r="K66" s="3">
         <v>100</v>
@@ -3049,7 +3206,7 @@
         <v>100</v>
       </c>
       <c r="M66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N66" s="3">
         <v>0</v>
@@ -3058,10 +3215,13 @@
         <v>0</v>
       </c>
       <c r="P66" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3078,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3122,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3166,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3210,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3254,25 +3424,28 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-500</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-300</v>
       </c>
       <c r="I72" s="3">
         <v>-300</v>
@@ -3281,7 +3454,7 @@
         <v>-300</v>
       </c>
       <c r="K72" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="L72" s="3">
         <v>-200</v>
@@ -3296,10 +3469,13 @@
         <v>-200</v>
       </c>
       <c r="P72" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3342,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3386,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3430,31 +3612,34 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>400</v>
+      </c>
+      <c r="E76" s="3">
         <v>600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-200</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-100</v>
       </c>
       <c r="K76" s="3">
         <v>-100</v>
@@ -3463,7 +3648,7 @@
         <v>-100</v>
       </c>
       <c r="M76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N76" s="3">
         <v>0</v>
@@ -3472,10 +3657,13 @@
         <v>0</v>
       </c>
       <c r="P76" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3518,71 +3706,77 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-200</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-100</v>
       </c>
       <c r="H81" s="3">
         <v>-100</v>
@@ -3594,7 +3788,7 @@
         <v>-100</v>
       </c>
       <c r="K81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L81" s="3">
         <v>0</v>
@@ -3611,8 +3805,11 @@
       <c r="P81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3629,13 +3826,14 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -3646,23 +3844,23 @@
       <c r="G83" s="3">
         <v>0</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
+      <c r="H83" s="3">
+        <v>0</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
+      <c r="J83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -3673,8 +3871,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3717,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3761,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3805,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3849,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3893,35 +4106,38 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>300</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
         <v>0</v>
       </c>
@@ -3937,8 +4153,11 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3955,13 +4174,14 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>0</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>4</v>
@@ -3969,26 +4189,26 @@
       <c r="F91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -3999,8 +4219,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4043,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4087,8 +4313,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4104,23 +4333,23 @@
       <c r="G94" s="3">
         <v>0</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -4131,8 +4360,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4149,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4193,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4237,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4281,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4325,13 +4567,16 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -4342,14 +4587,14 @@
       <c r="G100" s="3">
         <v>0</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>4</v>
+      <c r="H100" s="3">
+        <v>0</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
+      <c r="J100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -4357,20 +4602,23 @@
       <c r="L100" s="3">
         <v>0</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>4</v>
+      <c r="M100" s="3">
+        <v>0</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
+      <c r="O100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4386,23 +4634,23 @@
       <c r="G101" s="3">
         <v>0</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>4</v>
+      <c r="H101" s="3">
+        <v>0</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>4</v>
+      <c r="J101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K101" s="3">
+        <v>0</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
+      <c r="M101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N101" s="3">
         <v>0</v>
@@ -4413,35 +4661,38 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-300</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
@@ -4455,6 +4706,9 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CFOO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CFOO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
   <si>
     <t>CFOO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,111 +665,123 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
-        <v>400</v>
+      <c r="D8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E8" s="3">
         <v>100</v>
       </c>
       <c r="F8" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G8" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="H8" s="3">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="I8" s="3">
         <v>300</v>
       </c>
       <c r="J8" s="3">
+        <v>200</v>
+      </c>
+      <c r="K8" s="3">
+        <v>600</v>
+      </c>
+      <c r="L8" s="3">
+        <v>300</v>
+      </c>
+      <c r="M8" s="3">
         <v>100</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
       <c r="N8" s="3">
         <v>0</v>
       </c>
@@ -782,43 +794,52 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
         <v>100</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
         <v>100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="J9" s="3">
         <v>200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="K9" s="3">
         <v>200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="L9" s="3">
         <v>300</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>4</v>
@@ -829,43 +850,52 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
-        <v>300</v>
+      <c r="D10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E10" s="3">
         <v>100</v>
       </c>
       <c r="F10" s="3">
+        <v>100</v>
+      </c>
+      <c r="G10" s="3">
+        <v>300</v>
+      </c>
+      <c r="H10" s="3">
+        <v>100</v>
+      </c>
+      <c r="I10" s="3">
         <v>200</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
         <v>400</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
         <v>100</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
+      <c r="N10" s="3">
+        <v>0</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>4</v>
@@ -876,8 +906,17 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +934,11 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +984,17 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1040,17 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1036,8 +1096,17 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1152,17 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,44 +1177,47 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3">
+        <v>100</v>
+      </c>
+      <c r="G17" s="3">
         <v>800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="J17" s="3">
         <v>400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="K17" s="3">
         <v>700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
       <c r="O17" s="3">
         <v>0</v>
       </c>
@@ -1146,44 +1227,53 @@
       <c r="Q17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="E18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I18" s="3">
         <v>100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
         <v>0</v>
       </c>
@@ -1193,8 +1283,17 @@
       <c r="Q18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,13 +1311,16 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1259,32 +1361,41 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G21" s="3">
         <v>-400</v>
       </c>
-      <c r="E21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I21" s="3">
         <v>100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="J21" s="3">
         <v>-200</v>
       </c>
-      <c r="H21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K21" s="3">
         <v>-100</v>
       </c>
@@ -1294,8 +1405,8 @@
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
+      <c r="N21" s="3">
+        <v>-100</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>4</v>
@@ -1306,8 +1417,17 @@
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,43 +1473,52 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G23" s="3">
         <v>-400</v>
       </c>
-      <c r="E23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-100</v>
-      </c>
       <c r="K23" s="3">
         <v>-100</v>
       </c>
       <c r="L23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O23" s="3">
         <v>0</v>
@@ -1400,8 +1529,17 @@
       <c r="Q23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1447,8 +1585,17 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,43 +1641,52 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G26" s="3">
         <v>-500</v>
       </c>
-      <c r="E26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-100</v>
-      </c>
       <c r="K26" s="3">
         <v>-100</v>
       </c>
       <c r="L26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O26" s="3">
         <v>0</v>
@@ -1541,43 +1697,52 @@
       <c r="Q26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G27" s="3">
         <v>-500</v>
       </c>
-      <c r="E27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-100</v>
-      </c>
       <c r="K27" s="3">
         <v>-100</v>
       </c>
       <c r="L27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O27" s="3">
         <v>0</v>
@@ -1588,8 +1753,17 @@
       <c r="Q27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1809,17 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1664,14 +1847,14 @@
       <c r="K29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
@@ -1682,8 +1865,17 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1921,17 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,13 +1977,22 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1823,43 +2033,52 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G33" s="3">
         <v>-500</v>
       </c>
-      <c r="E33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-100</v>
-      </c>
       <c r="K33" s="3">
         <v>-100</v>
       </c>
       <c r="L33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O33" s="3">
         <v>0</v>
@@ -1870,8 +2089,17 @@
       <c r="Q33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,43 +2145,52 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G35" s="3">
         <v>-500</v>
       </c>
-      <c r="E35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-100</v>
-      </c>
       <c r="K35" s="3">
         <v>-100</v>
       </c>
       <c r="L35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O35" s="3">
         <v>0</v>
@@ -1964,60 +2201,78 @@
       <c r="Q35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2290,11 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,40 +2312,43 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>500</v>
+      </c>
+      <c r="F41" s="3">
+        <v>500</v>
+      </c>
+      <c r="G41" s="3">
         <v>600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="H41" s="3">
         <v>700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="I41" s="3">
         <v>800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="J41" s="3">
         <v>700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="K41" s="3">
         <v>1000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="L41" s="3">
         <v>1000</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>4</v>
+      <c r="M41" s="3">
+        <v>0</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
@@ -2095,14 +2356,23 @@
       <c r="O41" s="3">
         <v>0</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
+      <c r="P41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,8 +2418,17 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2157,37 +2436,37 @@
         <v>100</v>
       </c>
       <c r="E43" s="3">
+        <v>100</v>
+      </c>
+      <c r="F43" s="3">
+        <v>100</v>
+      </c>
+      <c r="G43" s="3">
+        <v>100</v>
+      </c>
+      <c r="H43" s="3">
         <v>300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="I43" s="3">
         <v>300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="J43" s="3">
         <v>200</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
-      <c r="O43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
@@ -2195,8 +2474,17 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2204,84 +2492,93 @@
         <v>300</v>
       </c>
       <c r="E44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F44" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H44" s="3">
         <v>200</v>
       </c>
       <c r="I44" s="3">
+        <v>100</v>
+      </c>
+      <c r="J44" s="3">
+        <v>200</v>
+      </c>
+      <c r="K44" s="3">
+        <v>200</v>
+      </c>
+      <c r="L44" s="3">
         <v>300</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
-      </c>
-      <c r="O44" s="3">
-        <v>0</v>
-      </c>
-      <c r="P44" s="3">
-        <v>0</v>
+      <c r="N44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>300</v>
+      </c>
+      <c r="F45" s="3">
         <v>400</v>
-      </c>
-      <c r="E45" s="3">
-        <v>400</v>
-      </c>
-      <c r="F45" s="3">
-        <v>500</v>
       </c>
       <c r="G45" s="3">
         <v>400</v>
       </c>
       <c r="H45" s="3">
+        <v>400</v>
+      </c>
+      <c r="I45" s="3">
+        <v>500</v>
+      </c>
+      <c r="J45" s="3">
+        <v>400</v>
+      </c>
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M45" s="3">
-        <v>0</v>
+      <c r="M45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
+      <c r="O45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -2289,38 +2586,47 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G46" s="3">
         <v>1400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="H46" s="3">
         <v>1500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="I46" s="3">
         <v>1700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="J46" s="3">
         <v>1500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="K46" s="3">
         <v>1300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="L46" s="3">
         <v>1400</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
       <c r="M46" s="3">
         <v>0</v>
       </c>
@@ -2336,8 +2642,17 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,8 +2698,17 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2392,13 +2716,13 @@
         <v>100</v>
       </c>
       <c r="E48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H48" s="3">
         <v>200</v>
@@ -2406,32 +2730,41 @@
       <c r="I48" s="3">
         <v>200</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
+      <c r="J48" s="3">
+        <v>200</v>
+      </c>
+      <c r="K48" s="3">
+        <v>200</v>
+      </c>
+      <c r="L48" s="3">
+        <v>200</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
-      </c>
-      <c r="O48" s="3">
-        <v>0</v>
-      </c>
-      <c r="P48" s="3">
-        <v>0</v>
+      <c r="N48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2453,32 +2786,41 @@
       <c r="I49" s="3">
         <v>0</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>4</v>
+      <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3">
+        <v>0</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
-      </c>
-      <c r="O49" s="3">
-        <v>0</v>
-      </c>
-      <c r="P49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2866,17 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2922,17 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2618,8 +2978,17 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,38 +3034,47 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F54" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G54" s="3">
         <v>1600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="H54" s="3">
         <v>1700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="I54" s="3">
         <v>1900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="J54" s="3">
         <v>1700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="K54" s="3">
         <v>1500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>1600</v>
       </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
       <c r="M54" s="3">
         <v>0</v>
       </c>
@@ -2712,8 +3090,17 @@
       <c r="Q54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +3118,11 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,19 +3140,22 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>0</v>
-      </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
-      <c r="F57" s="3">
-        <v>0</v>
+      <c r="D57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G57" s="3">
         <v>0</v>
@@ -2770,14 +3163,14 @@
       <c r="H57" s="3">
         <v>0</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>4</v>
+      <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3">
+        <v>0</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>4</v>
@@ -2785,20 +3178,29 @@
       <c r="M57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N57" s="3">
-        <v>0</v>
-      </c>
-      <c r="O57" s="3">
-        <v>0</v>
-      </c>
-      <c r="P57" s="3">
-        <v>0</v>
+      <c r="N57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2832,8 +3234,8 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
+      <c r="N58" s="3">
+        <v>0</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -2841,16 +3243,25 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E59" s="3">
         <v>800</v>
@@ -2859,45 +3270,54 @@
         <v>900</v>
       </c>
       <c r="G59" s="3">
+        <v>900</v>
+      </c>
+      <c r="H59" s="3">
         <v>800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
+        <v>900</v>
+      </c>
+      <c r="J59" s="3">
+        <v>800</v>
+      </c>
+      <c r="K59" s="3">
         <v>700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="L59" s="3">
         <v>1900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="M59" s="3">
         <v>200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="N59" s="3">
         <v>100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="O59" s="3">
         <v>100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="P59" s="3">
         <v>100</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
-      </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
-      <c r="P59" s="3">
-        <v>0</v>
-      </c>
       <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E60" s="3">
         <v>800</v>
@@ -2906,40 +3326,49 @@
         <v>900</v>
       </c>
       <c r="G60" s="3">
+        <v>900</v>
+      </c>
+      <c r="H60" s="3">
         <v>800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
+        <v>900</v>
+      </c>
+      <c r="J60" s="3">
+        <v>800</v>
+      </c>
+      <c r="K60" s="3">
         <v>700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>1900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="M60" s="3">
         <v>200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="N60" s="3">
         <v>100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="O60" s="3">
         <v>100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="P60" s="3">
         <v>100</v>
       </c>
-      <c r="N60" s="3">
-        <v>0</v>
-      </c>
-      <c r="O60" s="3">
-        <v>0</v>
-      </c>
-      <c r="P60" s="3">
-        <v>0</v>
-      </c>
       <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+      <c r="T60" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2985,8 +3414,17 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2994,23 +3432,23 @@
         <v>200</v>
       </c>
       <c r="E62" s="3">
+        <v>200</v>
+      </c>
+      <c r="F62" s="3">
+        <v>200</v>
+      </c>
+      <c r="G62" s="3">
+        <v>200</v>
+      </c>
+      <c r="H62" s="3">
         <v>300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="I62" s="3">
         <v>300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="J62" s="3">
         <v>300</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3020,20 +3458,29 @@
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
-      </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3526,17 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3582,17 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3638,73 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G66" s="3">
         <v>1200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="H66" s="3">
         <v>1100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="I66" s="3">
         <v>1200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="J66" s="3">
         <v>1000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="K66" s="3">
         <v>700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>1900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>100</v>
       </c>
-      <c r="N66" s="3">
-        <v>0</v>
-      </c>
-      <c r="O66" s="3">
-        <v>0</v>
-      </c>
-      <c r="P66" s="3">
-        <v>0</v>
-      </c>
       <c r="Q66" s="3">
+        <v>0</v>
+      </c>
+      <c r="R66" s="3">
+        <v>0</v>
+      </c>
+      <c r="S66" s="3">
+        <v>0</v>
+      </c>
+      <c r="T66" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3722,11 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3772,17 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3828,17 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3884,17 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,43 +3940,52 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G72" s="3">
         <v>-900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="H72" s="3">
         <v>-700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="I72" s="3">
         <v>-600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
         <v>-700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="K72" s="3">
         <v>-500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>-300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>-300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>-300</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-200</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-200</v>
       </c>
       <c r="O72" s="3">
         <v>-200</v>
@@ -3472,10 +3994,19 @@
         <v>-200</v>
       </c>
       <c r="Q72" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R72" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S72" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T72" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +4052,17 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +4108,17 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +4164,73 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>300</v>
+      </c>
+      <c r="F76" s="3">
+        <v>300</v>
+      </c>
+      <c r="G76" s="3">
         <v>400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="H76" s="3">
         <v>600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="I76" s="3">
         <v>700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="J76" s="3">
         <v>600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="K76" s="3">
         <v>800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>-300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>-200</v>
       </c>
-      <c r="K76" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-100</v>
-      </c>
       <c r="N76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q76" s="3">
+        <v>0</v>
+      </c>
+      <c r="R76" s="3">
+        <v>0</v>
+      </c>
+      <c r="S76" s="3">
+        <v>0</v>
+      </c>
+      <c r="T76" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,95 +4276,113 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G81" s="3">
         <v>-500</v>
       </c>
-      <c r="E81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-100</v>
-      </c>
       <c r="K81" s="3">
         <v>-100</v>
       </c>
       <c r="L81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O81" s="3">
         <v>0</v>
@@ -3808,8 +4393,17 @@
       <c r="Q81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,31 +4421,34 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
         <v>100</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
       <c r="H83" s="3">
         <v>0</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -3865,17 +4462,26 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4527,17 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4583,17 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4639,17 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4695,17 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,44 +4751,53 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="E89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-300</v>
-      </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I89" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
         <v>-300</v>
       </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
+        <v>400</v>
+      </c>
+      <c r="M89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N89" s="3">
         <v>300</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
         <v>0</v>
       </c>
@@ -4156,8 +4807,17 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,13 +4835,16 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>4</v>
@@ -4189,11 +4852,11 @@
       <c r="F91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>4</v>
@@ -4213,17 +4876,26 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4941,17 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,19 +4997,28 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
@@ -4336,11 +5026,11 @@
       <c r="H94" s="3">
         <v>0</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -4354,17 +5044,26 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +5081,11 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +5131,17 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +5187,17 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +5243,17 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,55 +5299,73 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>4</v>
+      <c r="L100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4637,11 +5384,11 @@
       <c r="H101" s="3">
         <v>0</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>4</v>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -4655,53 +5402,62 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
-      <c r="P101" s="3">
-        <v>0</v>
+      <c r="O101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G102" s="3">
         <v>-400</v>
       </c>
-      <c r="E102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="J102" s="3">
         <v>-300</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
@@ -4709,6 +5465,15 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CFOO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CFOO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
   <si>
     <t>CFOO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,126 +665,129 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>200</v>
       </c>
       <c r="E8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3">
         <v>100</v>
       </c>
       <c r="G8" s="3">
+        <v>100</v>
+      </c>
+      <c r="H8" s="3">
         <v>400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>100</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
       <c r="O8" s="3">
         <v>0</v>
       </c>
@@ -803,13 +806,16 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
@@ -818,31 +824,31 @@
         <v>0</v>
       </c>
       <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
         <v>100</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
       <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
         <v>100</v>
-      </c>
-      <c r="J9" s="3">
-        <v>200</v>
       </c>
       <c r="K9" s="3">
         <v>200</v>
       </c>
       <c r="L9" s="3">
+        <v>200</v>
+      </c>
+      <c r="M9" s="3">
         <v>300</v>
       </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
       <c r="N9" s="3">
         <v>0</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>4</v>
+      <c r="O9" s="3">
+        <v>0</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>4</v>
@@ -859,46 +865,49 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
+      <c r="D10" s="3">
+        <v>0</v>
       </c>
       <c r="E10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
         <v>100</v>
       </c>
       <c r="G10" s="3">
+        <v>100</v>
+      </c>
+      <c r="H10" s="3">
         <v>300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>200</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
       <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
         <v>400</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
       <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
         <v>100</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
+      <c r="O10" s="3">
+        <v>0</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>4</v>
@@ -915,8 +924,11 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -937,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -993,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1049,8 +1065,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1105,8 +1124,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1161,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1180,13 +1205,14 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E17" s="3">
         <v>100</v>
@@ -1195,31 +1221,31 @@
         <v>100</v>
       </c>
       <c r="G17" s="3">
+        <v>100</v>
+      </c>
+      <c r="H17" s="3">
         <v>800</v>
-      </c>
-      <c r="H17" s="3">
-        <v>200</v>
       </c>
       <c r="I17" s="3">
         <v>200</v>
       </c>
       <c r="J17" s="3">
+        <v>200</v>
+      </c>
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>500</v>
-      </c>
-      <c r="M17" s="3">
-        <v>200</v>
       </c>
       <c r="N17" s="3">
         <v>200</v>
       </c>
       <c r="O17" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P17" s="3">
         <v>0</v>
@@ -1236,47 +1262,50 @@
       <c r="T17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>-100</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
       </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3">
-        <v>-100</v>
-      </c>
       <c r="I18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J18" s="3">
         <v>100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
-        <v>-100</v>
-      </c>
       <c r="L18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
-        <v>-100</v>
-      </c>
       <c r="N18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
         <v>0</v>
       </c>
@@ -1292,8 +1321,11 @@
       <c r="T18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1314,13 +1346,14 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1370,46 +1403,49 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>-100</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H21" s="3">
         <v>-400</v>
       </c>
-      <c r="H21" s="3">
-        <v>-100</v>
-      </c>
       <c r="I21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J21" s="3">
         <v>100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
+      <c r="L21" s="3">
+        <v>-100</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3">
+        <v>-100</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>4</v>
@@ -1426,8 +1462,11 @@
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1482,8 +1521,11 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1491,26 +1533,26 @@
         <v>-100</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H23" s="3">
         <v>-400</v>
       </c>
-      <c r="H23" s="3">
-        <v>-100</v>
-      </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
-        <v>-100</v>
-      </c>
       <c r="L23" s="3">
         <v>-100</v>
       </c>
@@ -1521,7 +1563,7 @@
         <v>-100</v>
       </c>
       <c r="O23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P23" s="3">
         <v>0</v>
@@ -1538,8 +1580,11 @@
       <c r="T23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1594,8 +1639,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1650,8 +1698,11 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1659,26 +1710,26 @@
         <v>-100</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H26" s="3">
         <v>-500</v>
       </c>
-      <c r="H26" s="3">
-        <v>-100</v>
-      </c>
       <c r="I26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
-        <v>-100</v>
-      </c>
       <c r="L26" s="3">
         <v>-100</v>
       </c>
@@ -1689,7 +1740,7 @@
         <v>-100</v>
       </c>
       <c r="O26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P26" s="3">
         <v>0</v>
@@ -1706,8 +1757,11 @@
       <c r="T26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1715,26 +1769,26 @@
         <v>-100</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H27" s="3">
         <v>-500</v>
       </c>
-      <c r="H27" s="3">
-        <v>-100</v>
-      </c>
       <c r="I27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
-        <v>-100</v>
-      </c>
       <c r="L27" s="3">
         <v>-100</v>
       </c>
@@ -1745,7 +1799,7 @@
         <v>-100</v>
       </c>
       <c r="O27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P27" s="3">
         <v>0</v>
@@ -1762,8 +1816,11 @@
       <c r="T27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1818,31 +1875,34 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>4</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>4</v>
@@ -1856,8 +1916,8 @@
       <c r="N29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
@@ -1874,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1930,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1986,13 +2052,16 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2042,8 +2111,11 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2051,26 +2123,26 @@
         <v>-100</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H33" s="3">
         <v>-500</v>
       </c>
-      <c r="H33" s="3">
-        <v>-100</v>
-      </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
-        <v>-100</v>
-      </c>
       <c r="L33" s="3">
         <v>-100</v>
       </c>
@@ -2081,7 +2153,7 @@
         <v>-100</v>
       </c>
       <c r="O33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P33" s="3">
         <v>0</v>
@@ -2098,8 +2170,11 @@
       <c r="T33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2154,8 +2229,11 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2163,26 +2241,26 @@
         <v>-100</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H35" s="3">
         <v>-500</v>
       </c>
-      <c r="H35" s="3">
-        <v>-100</v>
-      </c>
       <c r="I35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
-        <v>-100</v>
-      </c>
       <c r="L35" s="3">
         <v>-100</v>
       </c>
@@ -2193,7 +2271,7 @@
         <v>-100</v>
       </c>
       <c r="O35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P35" s="3">
         <v>0</v>
@@ -2210,69 +2288,75 @@
       <c r="T35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2293,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2315,8 +2400,9 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2324,31 +2410,31 @@
         <v>400</v>
       </c>
       <c r="E41" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F41" s="3">
         <v>500</v>
       </c>
       <c r="G41" s="3">
+        <v>500</v>
+      </c>
+      <c r="H41" s="3">
         <v>600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>700</v>
-      </c>
-      <c r="K41" s="3">
-        <v>1000</v>
       </c>
       <c r="L41" s="3">
         <v>1000</v>
       </c>
       <c r="M41" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
@@ -2356,11 +2442,11 @@
       <c r="O41" s="3">
         <v>0</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>0</v>
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R41" s="3">
         <v>0</v>
@@ -2371,8 +2457,11 @@
       <c r="T41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2427,13 +2516,16 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E43" s="3">
         <v>100</v>
@@ -2445,17 +2537,17 @@
         <v>100</v>
       </c>
       <c r="H43" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="I43" s="3">
         <v>300</v>
       </c>
       <c r="J43" s="3">
+        <v>300</v>
+      </c>
+      <c r="K43" s="3">
         <v>200</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2468,8 +2560,8 @@
       <c r="O43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
+      <c r="P43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
@@ -2483,13 +2575,16 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E44" s="3">
         <v>300</v>
@@ -2501,23 +2596,23 @@
         <v>300</v>
       </c>
       <c r="H44" s="3">
+        <v>300</v>
+      </c>
+      <c r="I44" s="3">
         <v>200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>100</v>
-      </c>
-      <c r="J44" s="3">
-        <v>200</v>
       </c>
       <c r="K44" s="3">
         <v>200</v>
       </c>
       <c r="L44" s="3">
+        <v>200</v>
+      </c>
+      <c r="M44" s="3">
         <v>300</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2527,8 +2622,8 @@
       <c r="P44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q44" s="3">
-        <v>0</v>
+      <c r="Q44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R44" s="3">
         <v>0</v>
@@ -2539,19 +2634,22 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>300</v>
       </c>
       <c r="F45" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G45" s="3">
         <v>400</v>
@@ -2560,28 +2658,28 @@
         <v>400</v>
       </c>
       <c r="I45" s="3">
+        <v>400</v>
+      </c>
+      <c r="J45" s="3">
         <v>500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>400</v>
-      </c>
-      <c r="K45" s="3">
-        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P45" s="3">
-        <v>0</v>
+      <c r="M45" s="3">
+        <v>100</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
@@ -2595,41 +2693,44 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>600</v>
+      </c>
+      <c r="E46" s="3">
         <v>1000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1400</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
       <c r="N46" s="3">
         <v>0</v>
       </c>
@@ -2651,8 +2752,11 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2707,8 +2811,11 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2725,7 +2832,7 @@
         <v>100</v>
       </c>
       <c r="H48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I48" s="3">
         <v>200</v>
@@ -2739,8 +2846,8 @@
       <c r="L48" s="3">
         <v>200</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
+      <c r="M48" s="3">
+        <v>200</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>4</v>
@@ -2751,8 +2858,8 @@
       <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
@@ -2763,8 +2870,11 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2795,8 +2905,8 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>4</v>
+      <c r="M49" s="3">
+        <v>0</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>4</v>
@@ -2807,8 +2917,8 @@
       <c r="P49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
+      <c r="Q49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
@@ -2819,8 +2929,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2875,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2931,8 +3047,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2987,8 +3106,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3043,41 +3165,44 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>700</v>
+      </c>
+      <c r="E54" s="3">
         <v>1100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1600</v>
       </c>
-      <c r="M54" s="3">
-        <v>0</v>
-      </c>
       <c r="N54" s="3">
         <v>0</v>
       </c>
@@ -3099,8 +3224,11 @@
       <c r="T54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3121,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3143,13 +3272,14 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>4</v>
+      <c r="D57" s="3">
+        <v>0</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>4</v>
@@ -3157,8 +3287,8 @@
       <c r="F57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G57" s="3">
-        <v>0</v>
+      <c r="G57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
@@ -3172,8 +3302,8 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>4</v>
+      <c r="L57" s="3">
+        <v>0</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>4</v>
@@ -3187,8 +3317,8 @@
       <c r="P57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q57" s="3">
-        <v>0</v>
+      <c r="Q57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R57" s="3">
         <v>0</v>
@@ -3199,8 +3329,11 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3243,55 +3376,58 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
       </c>
       <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E59" s="3">
         <v>800</v>
       </c>
       <c r="F59" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="G59" s="3">
         <v>900</v>
       </c>
       <c r="H59" s="3">
+        <v>900</v>
+      </c>
+      <c r="I59" s="3">
         <v>800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>200</v>
-      </c>
-      <c r="N59" s="3">
-        <v>100</v>
       </c>
       <c r="O59" s="3">
         <v>100</v>
@@ -3300,7 +3436,7 @@
         <v>100</v>
       </c>
       <c r="Q59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R59" s="3">
         <v>0</v>
@@ -3309,45 +3445,48 @@
         <v>0</v>
       </c>
       <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E60" s="3">
         <v>800</v>
       </c>
       <c r="F60" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="G60" s="3">
         <v>900</v>
       </c>
       <c r="H60" s="3">
+        <v>900</v>
+      </c>
+      <c r="I60" s="3">
         <v>800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>200</v>
-      </c>
-      <c r="N60" s="3">
-        <v>100</v>
       </c>
       <c r="O60" s="3">
         <v>100</v>
@@ -3356,7 +3495,7 @@
         <v>100</v>
       </c>
       <c r="Q60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R60" s="3">
         <v>0</v>
@@ -3365,10 +3504,13 @@
         <v>0</v>
       </c>
       <c r="T60" s="3">
+        <v>0</v>
+      </c>
+      <c r="U60" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3423,13 +3565,16 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E62" s="3">
         <v>200</v>
@@ -3441,7 +3586,7 @@
         <v>200</v>
       </c>
       <c r="H62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I62" s="3">
         <v>300</v>
@@ -3449,8 +3594,8 @@
       <c r="J62" s="3">
         <v>300</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
+      <c r="K62" s="3">
+        <v>300</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>4</v>
@@ -3467,8 +3612,8 @@
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
@@ -3479,8 +3624,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3535,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3591,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3647,43 +3801,46 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>700</v>
+      </c>
+      <c r="E66" s="3">
         <v>900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>200</v>
-      </c>
-      <c r="N66" s="3">
-        <v>100</v>
       </c>
       <c r="O66" s="3">
         <v>100</v>
@@ -3692,7 +3849,7 @@
         <v>100</v>
       </c>
       <c r="Q66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R66" s="3">
         <v>0</v>
@@ -3701,10 +3858,13 @@
         <v>0</v>
       </c>
       <c r="T66" s="3">
+        <v>0</v>
+      </c>
+      <c r="U66" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3725,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3781,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3837,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3893,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3949,37 +4119,40 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1100</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-1000</v>
       </c>
       <c r="F72" s="3">
         <v>-1000</v>
       </c>
       <c r="G72" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H72" s="3">
         <v>-900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-500</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-300</v>
       </c>
       <c r="M72" s="3">
         <v>-300</v>
@@ -3988,7 +4161,7 @@
         <v>-300</v>
       </c>
       <c r="O72" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="P72" s="3">
         <v>-200</v>
@@ -4003,10 +4176,13 @@
         <v>-200</v>
       </c>
       <c r="T72" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U72" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4061,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4117,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4173,44 +4355,47 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>0</v>
+      </c>
+      <c r="E76" s="3">
         <v>200</v>
-      </c>
-      <c r="E76" s="3">
-        <v>300</v>
       </c>
       <c r="F76" s="3">
         <v>300</v>
       </c>
       <c r="G76" s="3">
+        <v>300</v>
+      </c>
+      <c r="H76" s="3">
         <v>400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-200</v>
       </c>
-      <c r="N76" s="3">
-        <v>-100</v>
-      </c>
       <c r="O76" s="3">
         <v>-100</v>
       </c>
@@ -4218,7 +4403,7 @@
         <v>-100</v>
       </c>
       <c r="Q76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R76" s="3">
         <v>0</v>
@@ -4227,10 +4412,13 @@
         <v>0</v>
       </c>
       <c r="T76" s="3">
+        <v>0</v>
+      </c>
+      <c r="U76" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4285,69 +4473,75 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4355,26 +4549,26 @@
         <v>-100</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H81" s="3">
         <v>-500</v>
       </c>
-      <c r="H81" s="3">
-        <v>-100</v>
-      </c>
       <c r="I81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
-        <v>-100</v>
-      </c>
       <c r="L81" s="3">
         <v>-100</v>
       </c>
@@ -4385,7 +4579,7 @@
         <v>-100</v>
       </c>
       <c r="O81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P81" s="3">
         <v>0</v>
@@ -4402,8 +4596,11 @@
       <c r="T81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4424,8 +4621,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4439,11 +4637,11 @@
         <v>0</v>
       </c>
       <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
         <v>100</v>
       </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
       <c r="I83" s="3">
         <v>0</v>
       </c>
@@ -4453,23 +4651,23 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
-      <c r="O83" s="3" t="s">
-        <v>4</v>
+      <c r="N83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
@@ -4480,8 +4678,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4536,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4592,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4648,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4704,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4760,47 +4973,50 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
       </c>
       <c r="F89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
-        <v>-100</v>
-      </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>300</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
         <v>0</v>
       </c>
@@ -4816,8 +5032,11 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4838,52 +5057,53 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -4894,8 +5114,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4950,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5006,13 +5232,16 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
+      <c r="D94" s="3">
+        <v>0</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>4</v>
@@ -5020,8 +5249,8 @@
       <c r="F94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H94" s="3">
         <v>0</v>
@@ -5035,23 +5264,23 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
@@ -5062,8 +5291,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5084,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5140,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5196,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5252,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5308,26 +5550,29 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
@@ -5337,14 +5582,14 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>4</v>
+      <c r="L100" s="3">
+        <v>0</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
+      <c r="N100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
@@ -5352,20 +5597,23 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>4</v>
+      <c r="Q100" s="3">
+        <v>0</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
+      <c r="S100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5393,23 +5641,23 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>4</v>
+      <c r="L101" s="3">
+        <v>0</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-      <c r="O101" s="3" t="s">
-        <v>4</v>
+      <c r="N101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
+      <c r="Q101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R101" s="3">
         <v>0</v>
@@ -5420,47 +5668,50 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H102" s="3">
         <v>-400</v>
       </c>
-      <c r="H102" s="3">
-        <v>-100</v>
-      </c>
       <c r="I102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-300</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
@@ -5474,6 +5725,9 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CFOO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CFOO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
   <si>
     <t>CFOO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,135 +665,143 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
         <v>200</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
         <v>100</v>
-      </c>
-      <c r="G8" s="3">
-        <v>100</v>
-      </c>
-      <c r="H8" s="3">
-        <v>400</v>
       </c>
       <c r="I8" s="3">
         <v>100</v>
       </c>
       <c r="J8" s="3">
+        <v>400</v>
+      </c>
+      <c r="K8" s="3">
+        <v>100</v>
+      </c>
+      <c r="L8" s="3">
         <v>300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>100</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
       <c r="Q8" s="3">
         <v>0</v>
       </c>
@@ -809,25 +817,31 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
         <v>200</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
       <c r="G9" s="3">
         <v>0</v>
       </c>
       <c r="H9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
@@ -836,25 +850,25 @@
         <v>100</v>
       </c>
       <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>100</v>
+      </c>
+      <c r="M9" s="3">
         <v>200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>300</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>4</v>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>4</v>
@@ -868,52 +882,58 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
-        <v>0</v>
+      <c r="D10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
       </c>
       <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
         <v>100</v>
-      </c>
-      <c r="G10" s="3">
-        <v>100</v>
-      </c>
-      <c r="H10" s="3">
-        <v>300</v>
       </c>
       <c r="I10" s="3">
         <v>100</v>
       </c>
       <c r="J10" s="3">
+        <v>300</v>
+      </c>
+      <c r="K10" s="3">
+        <v>100</v>
+      </c>
+      <c r="L10" s="3">
         <v>200</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
         <v>400</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
         <v>100</v>
       </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>4</v>
+      <c r="Q10" s="3">
+        <v>0</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>4</v>
@@ -927,8 +947,14 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +976,10 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,8 +1037,14 @@
       <c r="U12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1102,14 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1127,8 +1167,14 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1232,14 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,53 +1258,55 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E17" s="3">
         <v>100</v>
       </c>
       <c r="F17" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G17" s="3">
         <v>100</v>
       </c>
       <c r="H17" s="3">
+        <v>100</v>
+      </c>
+      <c r="I17" s="3">
+        <v>100</v>
+      </c>
+      <c r="J17" s="3">
         <v>800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
       <c r="R17" s="3">
         <v>0</v>
       </c>
@@ -1265,37 +1319,43 @@
       <c r="U17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+      <c r="W17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>-100</v>
+      <c r="D18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E18" s="3">
         <v>-100</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L18" s="3">
         <v>100</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-100</v>
       </c>
       <c r="M18" s="3">
         <v>-200</v>
@@ -1307,10 +1367,10 @@
         <v>-200</v>
       </c>
       <c r="P18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q18" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="R18" s="3">
         <v>0</v>
@@ -1324,8 +1384,14 @@
       <c r="U18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,13 +1413,15 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1406,52 +1474,58 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>-100</v>
+      <c r="D21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E21" s="3">
         <v>-100</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G21" s="3">
         <v>-100</v>
       </c>
       <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J21" s="3">
         <v>-400</v>
       </c>
-      <c r="I21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L21" s="3">
         <v>100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="L21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-100</v>
+      <c r="N21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
+      <c r="Q21" s="3">
+        <v>-100</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>4</v>
@@ -1465,8 +1539,14 @@
       <c r="U21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1524,8 +1604,14 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1536,29 +1622,29 @@
         <v>-100</v>
       </c>
       <c r="F23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G23" s="3">
         <v>-100</v>
       </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-100</v>
-      </c>
       <c r="N23" s="3">
         <v>-100</v>
       </c>
@@ -1566,10 +1652,10 @@
         <v>-100</v>
       </c>
       <c r="P23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R23" s="3">
         <v>0</v>
@@ -1583,8 +1669,14 @@
       <c r="U23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1642,8 +1734,14 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,8 +1799,14 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1713,29 +1817,29 @@
         <v>-100</v>
       </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G26" s="3">
         <v>-100</v>
       </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J26" s="3">
         <v>-500</v>
       </c>
-      <c r="I26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-100</v>
-      </c>
       <c r="N26" s="3">
         <v>-100</v>
       </c>
@@ -1743,10 +1847,10 @@
         <v>-100</v>
       </c>
       <c r="P26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R26" s="3">
         <v>0</v>
@@ -1760,8 +1864,14 @@
       <c r="U26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1772,29 +1882,29 @@
         <v>-100</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G27" s="3">
         <v>-100</v>
       </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J27" s="3">
         <v>-500</v>
       </c>
-      <c r="I27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-100</v>
-      </c>
       <c r="N27" s="3">
         <v>-100</v>
       </c>
@@ -1802,10 +1912,10 @@
         <v>-100</v>
       </c>
       <c r="P27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R27" s="3">
         <v>0</v>
@@ -1819,8 +1929,14 @@
       <c r="U27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1994,14 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1904,11 +2026,11 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>4</v>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>4</v>
@@ -1919,11 +2041,11 @@
       <c r="O29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="P29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R29" s="3">
         <v>0</v>
@@ -1937,8 +2059,14 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2124,14 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,13 +2189,19 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2114,8 +2254,14 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2126,29 +2272,29 @@
         <v>-100</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G33" s="3">
         <v>-100</v>
       </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J33" s="3">
         <v>-500</v>
       </c>
-      <c r="I33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-100</v>
-      </c>
       <c r="N33" s="3">
         <v>-100</v>
       </c>
@@ -2156,10 +2302,10 @@
         <v>-100</v>
       </c>
       <c r="P33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R33" s="3">
         <v>0</v>
@@ -2173,8 +2319,14 @@
       <c r="U33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,8 +2384,14 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2244,29 +2402,29 @@
         <v>-100</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G35" s="3">
         <v>-100</v>
       </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J35" s="3">
         <v>-500</v>
       </c>
-      <c r="I35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-100</v>
-      </c>
       <c r="N35" s="3">
         <v>-100</v>
       </c>
@@ -2274,10 +2432,10 @@
         <v>-100</v>
       </c>
       <c r="P35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R35" s="3">
         <v>0</v>
@@ -2291,72 +2449,84 @@
       <c r="U35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2548,10 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,58 +2573,60 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>300</v>
+      </c>
+      <c r="F41" s="3">
         <v>400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>600</v>
-      </c>
-      <c r="I41" s="3">
-        <v>700</v>
-      </c>
-      <c r="J41" s="3">
-        <v>800</v>
       </c>
       <c r="K41" s="3">
         <v>700</v>
       </c>
       <c r="L41" s="3">
+        <v>800</v>
+      </c>
+      <c r="M41" s="3">
+        <v>700</v>
+      </c>
+      <c r="N41" s="3">
         <v>1000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1000</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>4</v>
+      <c r="Q41" s="3">
+        <v>0</v>
       </c>
       <c r="R41" s="3">
         <v>0</v>
       </c>
-      <c r="S41" s="3">
-        <v>0</v>
+      <c r="S41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T41" s="3">
         <v>0</v>
@@ -2460,8 +2634,14 @@
       <c r="U41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,8 +2699,14 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2528,10 +2714,10 @@
         <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G43" s="3">
         <v>100</v>
@@ -2540,20 +2726,20 @@
         <v>100</v>
       </c>
       <c r="I43" s="3">
+        <v>100</v>
+      </c>
+      <c r="J43" s="3">
+        <v>100</v>
+      </c>
+      <c r="K43" s="3">
         <v>300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>200</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2563,11 +2749,11 @@
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
-      <c r="R43" s="3">
-        <v>0</v>
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
@@ -2578,8 +2764,14 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2587,10 +2779,10 @@
         <v>100</v>
       </c>
       <c r="E44" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F44" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G44" s="3">
         <v>300</v>
@@ -2599,37 +2791,37 @@
         <v>300</v>
       </c>
       <c r="I44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J44" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K44" s="3">
         <v>200</v>
       </c>
       <c r="L44" s="3">
+        <v>100</v>
+      </c>
+      <c r="M44" s="3">
         <v>200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
+        <v>200</v>
+      </c>
+      <c r="O44" s="3">
         <v>300</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P44" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R44" s="3">
-        <v>0</v>
-      </c>
-      <c r="S44" s="3">
-        <v>0</v>
+      <c r="R44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T44" s="3">
         <v>0</v>
@@ -2637,8 +2829,14 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2646,46 +2844,46 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
+        <v>100</v>
+      </c>
+      <c r="F45" s="3">
+        <v>100</v>
+      </c>
+      <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>300</v>
-      </c>
-      <c r="G45" s="3">
-        <v>400</v>
-      </c>
-      <c r="H45" s="3">
-        <v>400</v>
       </c>
       <c r="I45" s="3">
         <v>400</v>
       </c>
       <c r="J45" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K45" s="3">
         <v>400</v>
       </c>
       <c r="L45" s="3">
+        <v>500</v>
+      </c>
+      <c r="M45" s="3">
+        <v>400</v>
+      </c>
+      <c r="N45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>100</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
+      <c r="R45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
@@ -2696,47 +2894,53 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>500</v>
+      </c>
+      <c r="F46" s="3">
         <v>600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1400</v>
-      </c>
-      <c r="I46" s="3">
-        <v>1500</v>
-      </c>
-      <c r="J46" s="3">
-        <v>1700</v>
       </c>
       <c r="K46" s="3">
         <v>1500</v>
       </c>
       <c r="L46" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N46" s="3">
         <v>1300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1400</v>
       </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
       <c r="P46" s="3">
         <v>0</v>
       </c>
@@ -2755,8 +2959,14 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,16 +3024,22 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F48" s="3">
         <v>100</v>
@@ -2835,10 +3051,10 @@
         <v>100</v>
       </c>
       <c r="I48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K48" s="3">
         <v>200</v>
@@ -2849,11 +3065,11 @@
       <c r="M48" s="3">
         <v>200</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
+      <c r="N48" s="3">
+        <v>200</v>
+      </c>
+      <c r="O48" s="3">
+        <v>200</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>4</v>
@@ -2861,11 +3077,11 @@
       <c r="Q48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
-      </c>
-      <c r="S48" s="3">
-        <v>0</v>
+      <c r="R48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T48" s="3">
         <v>0</v>
@@ -2873,8 +3089,14 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2908,11 +3130,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O49" s="3" t="s">
-        <v>4</v>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>4</v>
@@ -2920,11 +3142,11 @@
       <c r="Q49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R49" s="3">
-        <v>0</v>
-      </c>
-      <c r="S49" s="3">
-        <v>0</v>
+      <c r="R49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T49" s="3">
         <v>0</v>
@@ -2932,8 +3154,14 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3219,14 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3284,14 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3109,8 +3349,14 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,47 +3414,53 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>600</v>
+      </c>
+      <c r="F54" s="3">
         <v>700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1600</v>
-      </c>
-      <c r="I54" s="3">
-        <v>1700</v>
-      </c>
-      <c r="J54" s="3">
-        <v>1900</v>
       </c>
       <c r="K54" s="3">
         <v>1700</v>
       </c>
       <c r="L54" s="3">
+        <v>1900</v>
+      </c>
+      <c r="M54" s="3">
+        <v>1700</v>
+      </c>
+      <c r="N54" s="3">
         <v>1500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1600</v>
       </c>
-      <c r="N54" s="3">
-        <v>0</v>
-      </c>
-      <c r="O54" s="3">
-        <v>0</v>
-      </c>
       <c r="P54" s="3">
         <v>0</v>
       </c>
@@ -3227,8 +3479,14 @@
       <c r="U54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3">
+        <v>0</v>
+      </c>
+      <c r="W54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3508,10 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,28 +3533,30 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
         <v>0</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>4</v>
+      <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3">
-        <v>0</v>
+      <c r="H57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J57" s="3">
         <v>0</v>
@@ -3305,11 +3567,11 @@
       <c r="L57" s="3">
         <v>0</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>4</v>
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
+        <v>0</v>
       </c>
       <c r="O57" s="3" t="s">
         <v>4</v>
@@ -3320,11 +3582,11 @@
       <c r="Q57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R57" s="3">
-        <v>0</v>
-      </c>
-      <c r="S57" s="3">
-        <v>0</v>
+      <c r="R57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T57" s="3">
         <v>0</v>
@@ -3332,8 +3594,14 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3379,20 +3647,26 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>4</v>
+      <c r="R58" s="3">
+        <v>0</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
+      <c r="T58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3400,19 +3674,19 @@
         <v>700</v>
       </c>
       <c r="E59" s="3">
+        <v>600</v>
+      </c>
+      <c r="F59" s="3">
+        <v>700</v>
+      </c>
+      <c r="G59" s="3">
         <v>800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>900</v>
-      </c>
-      <c r="H59" s="3">
-        <v>900</v>
-      </c>
-      <c r="I59" s="3">
-        <v>800</v>
       </c>
       <c r="J59" s="3">
         <v>900</v>
@@ -3421,37 +3695,43 @@
         <v>800</v>
       </c>
       <c r="L59" s="3">
+        <v>900</v>
+      </c>
+      <c r="M59" s="3">
+        <v>800</v>
+      </c>
+      <c r="N59" s="3">
         <v>700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>200</v>
-      </c>
-      <c r="O59" s="3">
-        <v>100</v>
-      </c>
-      <c r="P59" s="3">
-        <v>100</v>
       </c>
       <c r="Q59" s="3">
         <v>100</v>
       </c>
       <c r="R59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T59" s="3">
         <v>0</v>
       </c>
       <c r="U59" s="3">
+        <v>0</v>
+      </c>
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+      <c r="W59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3459,19 +3739,19 @@
         <v>700</v>
       </c>
       <c r="E60" s="3">
+        <v>600</v>
+      </c>
+      <c r="F60" s="3">
+        <v>700</v>
+      </c>
+      <c r="G60" s="3">
         <v>800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>900</v>
-      </c>
-      <c r="H60" s="3">
-        <v>900</v>
-      </c>
-      <c r="I60" s="3">
-        <v>800</v>
       </c>
       <c r="J60" s="3">
         <v>900</v>
@@ -3480,37 +3760,43 @@
         <v>800</v>
       </c>
       <c r="L60" s="3">
+        <v>900</v>
+      </c>
+      <c r="M60" s="3">
+        <v>800</v>
+      </c>
+      <c r="N60" s="3">
         <v>700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>200</v>
-      </c>
-      <c r="O60" s="3">
-        <v>100</v>
-      </c>
-      <c r="P60" s="3">
-        <v>100</v>
       </c>
       <c r="Q60" s="3">
         <v>100</v>
       </c>
       <c r="R60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T60" s="3">
         <v>0</v>
       </c>
       <c r="U60" s="3">
+        <v>0</v>
+      </c>
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+      <c r="W60" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3568,19 +3854,25 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>200</v>
+      <c r="D62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F62" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G62" s="3">
         <v>200</v>
@@ -3589,19 +3881,19 @@
         <v>200</v>
       </c>
       <c r="I62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K62" s="3">
         <v>300</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
+      <c r="L62" s="3">
+        <v>300</v>
+      </c>
+      <c r="M62" s="3">
+        <v>300</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>4</v>
@@ -3615,11 +3907,11 @@
       <c r="Q62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
-      </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
@@ -3627,8 +3919,14 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3984,14 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +4049,14 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,8 +4114,14 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3813,16 +4129,16 @@
         <v>700</v>
       </c>
       <c r="E66" s="3">
+        <v>600</v>
+      </c>
+      <c r="F66" s="3">
+        <v>700</v>
+      </c>
+      <c r="G66" s="3">
         <v>900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1000</v>
-      </c>
-      <c r="G66" s="3">
-        <v>1100</v>
-      </c>
-      <c r="H66" s="3">
-        <v>1200</v>
       </c>
       <c r="I66" s="3">
         <v>1100</v>
@@ -3831,40 +4147,46 @@
         <v>1200</v>
       </c>
       <c r="K66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M66" s="3">
         <v>1000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>200</v>
-      </c>
-      <c r="O66" s="3">
-        <v>100</v>
-      </c>
-      <c r="P66" s="3">
-        <v>100</v>
       </c>
       <c r="Q66" s="3">
         <v>100</v>
       </c>
       <c r="R66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T66" s="3">
         <v>0</v>
       </c>
       <c r="U66" s="3">
+        <v>0</v>
+      </c>
+      <c r="V66" s="3">
+        <v>0</v>
+      </c>
+      <c r="W66" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4208,10 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4269,14 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4334,14 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4399,14 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,52 +4464,58 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-1300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-1100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-1000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-1000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-900</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-700</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-600</v>
       </c>
       <c r="K72" s="3">
         <v>-700</v>
       </c>
       <c r="L72" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M72" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N72" s="3">
         <v>-500</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-300</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-300</v>
       </c>
       <c r="O72" s="3">
         <v>-300</v>
       </c>
       <c r="P72" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="Q72" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="R72" s="3">
         <v>-200</v>
@@ -4179,10 +4527,16 @@
         <v>-200</v>
       </c>
       <c r="U72" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V72" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W72" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4594,14 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4659,14 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4724,79 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F76" s="3">
+        <v>0</v>
+      </c>
+      <c r="G76" s="3">
         <v>200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>400</v>
-      </c>
-      <c r="I76" s="3">
-        <v>600</v>
-      </c>
-      <c r="J76" s="3">
-        <v>700</v>
       </c>
       <c r="K76" s="3">
         <v>600</v>
       </c>
       <c r="L76" s="3">
+        <v>700</v>
+      </c>
+      <c r="M76" s="3">
+        <v>600</v>
+      </c>
+      <c r="N76" s="3">
         <v>800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-200</v>
       </c>
-      <c r="O76" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P76" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q76" s="3">
         <v>-100</v>
       </c>
       <c r="R76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T76" s="3">
         <v>0</v>
       </c>
       <c r="U76" s="3">
+        <v>0</v>
+      </c>
+      <c r="V76" s="3">
+        <v>0</v>
+      </c>
+      <c r="W76" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,72 +4854,84 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4552,29 +4942,29 @@
         <v>-100</v>
       </c>
       <c r="F81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G81" s="3">
         <v>-100</v>
       </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J81" s="3">
         <v>-500</v>
       </c>
-      <c r="I81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-100</v>
-      </c>
       <c r="N81" s="3">
         <v>-100</v>
       </c>
@@ -4582,10 +4972,10 @@
         <v>-100</v>
       </c>
       <c r="P81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R81" s="3">
         <v>0</v>
@@ -4599,8 +4989,14 @@
       <c r="U81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +5018,10 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4640,40 +5038,40 @@
         <v>0</v>
       </c>
       <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
         <v>100</v>
       </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R83" s="3">
-        <v>0</v>
-      </c>
-      <c r="S83" s="3">
-        <v>0</v>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
@@ -4681,8 +5079,14 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +5144,14 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5209,14 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5274,14 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5339,14 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,8 +5404,14 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4985,44 +5419,44 @@
         <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>300</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
         <v>0</v>
       </c>
@@ -5035,8 +5469,14 @@
       <c r="U89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,8 +5498,10 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5084,8 +5526,8 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -5093,23 +5535,23 @@
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
@@ -5117,8 +5559,14 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5624,14 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,28 +5689,34 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
@@ -5267,26 +5727,26 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-      <c r="S94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
@@ -5294,8 +5754,14 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5783,10 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5844,14 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5909,14 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5974,14 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,8 +6039,14 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5562,58 +6054,64 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
-        <v>0</v>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5644,26 +6142,26 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O101" s="3">
-        <v>0</v>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
-      <c r="S101" s="3">
-        <v>0</v>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T101" s="3">
         <v>0</v>
@@ -5671,13 +6169,19 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
         <v>-100</v>
@@ -5689,35 +6193,35 @@
         <v>-100</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J102" s="3">
         <v>-400</v>
       </c>
-      <c r="I102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-300</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>200</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
@@ -5728,6 +6232,12 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>
